--- a/secteur-action-publique/services-publics-et-territoires/departements/barometre-resultats-services-publics-et-territoires-departements-synthese.xlsx
+++ b/secteur-action-publique/services-publics-et-territoires/departements/barometre-resultats-services-publics-et-territoires-departements-synthese.xlsx
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8999" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8999" uniqueCount="610">
   <si>
     <t>mesure</t>
   </si>
@@ -1931,10 +1931,19 @@
     <t>Mayotte</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>1260.0</t>
   </si>
   <si>
     <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
@@ -3233,7 +3242,7 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>605</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
@@ -3242,7 +3251,7 @@
         <v>291</v>
       </c>
       <c r="K2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -3277,10 +3286,10 @@
         <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>608</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
@@ -3315,7 +3324,7 @@
         <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>225</v>
+        <v>609</v>
       </c>
       <c r="I4" t="s">
         <v>45</v>
@@ -3362,7 +3371,7 @@
         <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>608</v>
       </c>
       <c r="I5" t="s">
         <v>57</v>
@@ -3397,7 +3406,7 @@
         <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>608</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
@@ -3432,7 +3441,7 @@
         <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>608</v>
       </c>
       <c r="I7" t="s">
         <v>21</v>
